--- a/CRM_Project/src/test/resources/testdata/CRMData.xlsx
+++ b/CRM_Project/src/test/resources/testdata/CRMData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAKHI\eclipse-workspace\CRM_Project\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAKHI\git\CRMProject\CRM_Project\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A3FCE0-ECEA-452D-A00F-9129E9F37AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCBA6D5-88B6-4A82-B4F7-10D8ECF65B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logindata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>username</t>
   </si>
@@ -147,10 +147,13 @@
     <t>User is unable to edit project</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>abc1</t>
+    <t>The record has been deleted.</t>
+  </si>
+  <si>
+    <t>projectabc</t>
+  </si>
+  <si>
+    <t>projectabc1</t>
   </si>
 </sst>
 </file>
@@ -525,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89920C25-19C3-4369-B47D-54A210235EF9}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +600,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +608,7 @@
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -667,13 +670,16 @@
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
       <c r="J3" t="s">
         <v>28</v>
       </c>
@@ -700,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91381A29-8469-473C-83B8-5F93313A369B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +744,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -750,7 +756,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>

--- a/CRM_Project/src/test/resources/testdata/CRMData.xlsx
+++ b/CRM_Project/src/test/resources/testdata/CRMData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAKHI\git\CRMProject\CRM_Project\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCBA6D5-88B6-4A82-B4F7-10D8ECF65B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62DB6AC-CF01-4E68-A2A8-5FC3C748F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logindata" sheetId="1" r:id="rId1"/>
@@ -45,18 +45,12 @@
     <t>addDescription</t>
   </si>
   <si>
-    <t>test@test1</t>
-  </si>
-  <si>
     <t>Testing first time</t>
   </si>
   <si>
     <t>editTitle</t>
   </si>
   <si>
-    <t>test@test2</t>
-  </si>
-  <si>
     <t>messages</t>
   </si>
   <si>
@@ -93,18 +87,12 @@
     <t>currencysymbol</t>
   </si>
   <si>
-    <t>obsqura@obsqura</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
     <t>Editedcopname</t>
   </si>
   <si>
-    <t>obsqura@obsqura1</t>
-  </si>
-  <si>
     <t>No record found.</t>
   </si>
   <si>
@@ -154,13 +142,25 @@
   </si>
   <si>
     <t>projectabc1</t>
+  </si>
+  <si>
+    <t>projecttest@test1</t>
+  </si>
+  <si>
+    <t>projecttest@test2</t>
+  </si>
+  <si>
+    <t>clientobsqura@obsqura</t>
+  </si>
+  <si>
+    <t>clientobsqura@obsqura1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,12 +172,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,10 +198,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,7 +522,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,48 +542,52 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1D777B0D-BCBD-4B51-83F6-A788290A7DCE}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{5A752F7F-532B-431F-9324-8AF8602E98CD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -599,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF4B64C-95E4-436A-BC9D-9194543C2E46}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,89 +611,90 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{E0221FF7-1E4F-4D2D-BFB9-707D5420E039}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{E89024A2-EE68-45FC-B1B1-41D2C96BF598}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -706,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91381A29-8469-473C-83B8-5F93313A369B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -721,58 +719,58 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>1234567</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/CRM_Project/src/test/resources/testdata/CRMData.xlsx
+++ b/CRM_Project/src/test/resources/testdata/CRMData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAKHI\git\CRMProject\CRM_Project\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62DB6AC-CF01-4E68-A2A8-5FC3C748F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D14EEA-A81E-4AF6-A2C3-91792ED10DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logindata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>username</t>
   </si>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89920C25-19C3-4369-B47D-54A210235EF9}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -565,12 +565,15 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF4B64C-95E4-436A-BC9D-9194543C2E46}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
